--- a/src/_posts/chaos-engineering/chaos-engineering-through-staged-resiliency/notes/playbooks.xlsx
+++ b/src/_posts/chaos-engineering/chaos-engineering-through-staged-resiliency/notes/playbooks.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Gremlin\gremlin-projects\gremlin-blog-posts\src\_posts\chaos-engineering\chaos-engineering-through-staged-resiliency\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E54D8BA-7762-43A1-ABC9-E64E4E364842}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E30DC8-1F2D-4E7F-9DB2-0B13108C5DB2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="12750" xr2:uid="{3DED6E99-5CD8-4F84-8CE0-E34B0D49F942}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="12750" activeTab="2" xr2:uid="{3DED6E99-5CD8-4F84-8CE0-E34B0D49F942}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 1 - Services" sheetId="2" r:id="rId1"/>
     <sheet name="Stage 1 - Critical Dependencies" sheetId="1" r:id="rId2"/>
-    <sheet name="Stage 1 - D.R.F.P." sheetId="3" r:id="rId3"/>
+    <sheet name="Stage 2 - Critical Dependencies" sheetId="4" r:id="rId3"/>
+    <sheet name="Stage 1 - D.R.F.P." sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>Criticality Period</t>
   </si>
@@ -49,15 +50,6 @@
     <t>CDN</t>
   </si>
   <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Application data</t>
-  </si>
-  <si>
-    <t>Static assets</t>
-  </si>
-  <si>
     <t>AZ</t>
   </si>
   <si>
@@ -85,12 +77,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>bookstore-api</t>
-  </si>
-  <si>
     <t>bookstore-vpc</t>
   </si>
   <si>
@@ -112,9 +98,6 @@
     <t>Manual Amazon S3 Bucket Verification</t>
   </si>
   <si>
-    <t>Supports</t>
-  </si>
-  <si>
     <t>Bookstore API</t>
   </si>
   <si>
@@ -139,9 +122,6 @@
     <t>Django, Nginx</t>
   </si>
   <si>
-    <t>bookstore-db</t>
-  </si>
-  <si>
     <t>Manual Amazon EC2 Instance Restart</t>
   </si>
   <si>
@@ -221,6 +201,12 @@
   </si>
   <si>
     <t>cdn.bookstore.pingpublications.com</t>
+  </si>
+  <si>
+    <t>Manual verification of Amazon RDS Multi-AZ secondary instance failover.</t>
+  </si>
+  <si>
+    <t>Manual verification of secondary Amazon S3 bucket failover DNS routing.</t>
   </si>
 </sst>
 </file>
@@ -594,157 +580,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF44F46-0C68-461C-A6B4-DEDF92FCA363}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>62</v>
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +721,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -783,24 +730,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3">
         <v>12</v>
@@ -809,7 +756,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -817,10 +764,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -829,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -837,10 +784,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>24</v>
@@ -849,7 +796,7 @@
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -859,6 +806,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F24DCD-F00C-4962-8AF9-AAFB07396828}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075C0C17-92A3-4FAF-95E3-A6A10BF91197}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -878,82 +910,82 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/src/_posts/chaos-engineering/chaos-engineering-through-staged-resiliency/notes/playbooks.xlsx
+++ b/src/_posts/chaos-engineering/chaos-engineering-through-staged-resiliency/notes/playbooks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Gremlin\gremlin-projects\gremlin-blog-posts\src\_posts\chaos-engineering\chaos-engineering-through-staged-resiliency\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E30DC8-1F2D-4E7F-9DB2-0B13108C5DB2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFB33E2-A0E9-44C8-9B30-D468FAA73F18}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="12750" activeTab="2" xr2:uid="{3DED6E99-5CD8-4F84-8CE0-E34B0D49F942}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>Criticality Period</t>
   </si>
@@ -807,10 +807,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F24DCD-F00C-4962-8AF9-AAFB07396828}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,11 +820,10 @@
     <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -840,11 +839,8 @@
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -860,11 +856,8 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -879,9 +872,6 @@
       </c>
       <c r="E3">
         <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
